--- a/docs/zatezove-testy.xlsx
+++ b/docs/zatezove-testy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Počet issues</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Načítání přiřazených issues se 2 štítky</t>
+  </si>
+  <si>
+    <t>Načítání přiřazených issues s 5 štítky</t>
+  </si>
+  <si>
+    <t>Načítání přiřazených issues s 10 štítky</t>
   </si>
 </sst>
 </file>
@@ -153,7 +159,19 @@
   <cellStyles count="1">
     <cellStyle name="normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -174,12 +192,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -723,7 +735,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>1 štítek + uživatel</c:v>
+            <c:v>uživatel + štítek</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -892,7 +904,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>2 štítky + uživatel</c:v>
+            <c:v>uživatel + 2 štítky</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1057,12 +1069,350 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>uživatel + 5 štítků</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Záznamy!$G$3:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1876</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2544</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3323</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3294</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3180</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3694</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3816</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4473</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4662</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5168</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5115</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5433</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5747</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6079</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5879</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6182</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6141</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6362</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7475</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6630</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7354</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7494</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>uživatel + 10 štítků</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Záznamy!$H$3:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1393</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1721</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2517</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2276</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2209</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2305</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2889</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3317</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4217</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4488</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5025</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5093</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6521</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6422</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6160</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6494</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6572</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7325</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7627</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8244</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7926</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8784</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8707</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8708</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9415</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10157</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9780</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="119219328"/>
-        <c:axId val="119220864"/>
+        <c:axId val="83041280"/>
+        <c:axId val="83052800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119219328"/>
+        <c:axId val="83041280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,14 +1437,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119220864"/>
+        <c:crossAx val="83052800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119220864"/>
+        <c:axId val="83052800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1476,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="119219328"/>
+        <c:crossAx val="83041280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1139,7 +1489,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1181,14 +1531,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A3:F52" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Sloupec1" headerRowDxfId="6" dataDxfId="5"/>
-    <tableColumn id="2" name="Sloupec2" headerRowDxfId="7" dataDxfId="4"/>
-    <tableColumn id="3" name="Sloupec3" headerRowDxfId="8" dataDxfId="3"/>
-    <tableColumn id="4" name="Sloupec4" dataDxfId="2"/>
-    <tableColumn id="5" name="Sloupec5" dataDxfId="1"/>
-    <tableColumn id="6" name="Sloupec6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabulka2" displayName="Tabulka2" ref="A3:H52" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="8">
+    <tableColumn id="1" name="Sloupec1" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="2" name="Sloupec2" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="3" name="Sloupec3" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="4" name="Sloupec4" dataDxfId="4"/>
+    <tableColumn id="5" name="Sloupec5" dataDxfId="3"/>
+    <tableColumn id="7" name="Sloupec7" dataDxfId="1"/>
+    <tableColumn id="8" name="Sloupec8" dataDxfId="0"/>
+    <tableColumn id="6" name="Sloupec6" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1479,19 +1831,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="6" width="18.140625" customWidth="1"/>
+    <col min="2" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.5" customHeight="1">
+    <row r="1" spans="1:8" ht="46.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1510,8 +1862,14 @@
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1528,8 +1886,14 @@
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1548,8 +1912,14 @@
       <c r="F3" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1">
+        <v>154</v>
+      </c>
+      <c r="H3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1568,8 +1938,14 @@
       <c r="F4" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1">
+        <v>250</v>
+      </c>
+      <c r="H4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1588,8 +1964,14 @@
       <c r="F5" s="1">
         <v>356</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1">
+        <v>434</v>
+      </c>
+      <c r="H5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1608,8 +1990,14 @@
       <c r="F6" s="1">
         <v>482</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1">
+        <v>685</v>
+      </c>
+      <c r="H6">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1628,8 +2016,14 @@
       <c r="F7" s="1">
         <v>674</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1">
+        <v>746</v>
+      </c>
+      <c r="H7">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1648,8 +2042,14 @@
       <c r="F8" s="1">
         <v>714</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1">
+        <v>690</v>
+      </c>
+      <c r="H8">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1668,8 +2068,14 @@
       <c r="F9" s="1">
         <v>910</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1">
+        <v>873</v>
+      </c>
+      <c r="H9">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1688,8 +2094,14 @@
       <c r="F10" s="1">
         <v>1091</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1">
+        <v>1178</v>
+      </c>
+      <c r="H10">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1708,8 +2120,14 @@
       <c r="F11" s="1">
         <v>1062</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1">
+        <v>1073</v>
+      </c>
+      <c r="H11">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1728,8 +2146,14 @@
       <c r="F12" s="1">
         <v>1324</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1">
+        <v>1238</v>
+      </c>
+      <c r="H12">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1748,8 +2172,14 @@
       <c r="F13" s="1">
         <v>1771</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1">
+        <v>1327</v>
+      </c>
+      <c r="H13">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1768,8 +2198,14 @@
       <c r="F14" s="1">
         <v>1877</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1">
+        <v>1559</v>
+      </c>
+      <c r="H14">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1788,8 +2224,14 @@
       <c r="F15" s="1">
         <v>1817</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1">
+        <v>1526</v>
+      </c>
+      <c r="H15">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1808,8 +2250,14 @@
       <c r="F16" s="1">
         <v>1491</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1">
+        <v>1851</v>
+      </c>
+      <c r="H16">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1828,8 +2276,14 @@
       <c r="F17" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1">
+        <v>1876</v>
+      </c>
+      <c r="H17">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1848,8 +2302,14 @@
       <c r="F18" s="1">
         <v>2067</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1">
+        <v>2074</v>
+      </c>
+      <c r="H18">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1868,8 +2328,14 @@
       <c r="F19" s="1">
         <v>1910</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1">
+        <v>2376</v>
+      </c>
+      <c r="H19">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1888,8 +2354,14 @@
       <c r="F20" s="1">
         <v>2322</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1">
+        <v>2276</v>
+      </c>
+      <c r="H20">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1908,8 +2380,14 @@
       <c r="F21" s="1">
         <v>2440</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1">
+        <v>2494</v>
+      </c>
+      <c r="H21">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1928,8 +2406,14 @@
       <c r="F22" s="1">
         <v>2645</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1">
+        <v>2594</v>
+      </c>
+      <c r="H22">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1948,8 +2432,14 @@
       <c r="F23" s="1">
         <v>2629</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1">
+        <v>2544</v>
+      </c>
+      <c r="H23">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1968,8 +2458,14 @@
       <c r="F24" s="1">
         <v>2900</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1">
+        <v>2598</v>
+      </c>
+      <c r="H24">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1988,8 +2484,14 @@
       <c r="F25" s="1">
         <v>2761</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1">
+        <v>2810</v>
+      </c>
+      <c r="H25">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2008,8 +2510,14 @@
       <c r="F26" s="1">
         <v>4148</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1">
+        <v>3323</v>
+      </c>
+      <c r="H26">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2028,8 +2536,14 @@
       <c r="F27" s="1">
         <v>3135</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="1">
+        <v>3294</v>
+      </c>
+      <c r="H27">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2048,8 +2562,14 @@
       <c r="F28" s="1">
         <v>3350</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1">
+        <v>3180</v>
+      </c>
+      <c r="H28">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2068,8 +2588,14 @@
       <c r="F29" s="1">
         <v>3142</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1">
+        <v>3694</v>
+      </c>
+      <c r="H29">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2088,8 +2614,14 @@
       <c r="F30" s="1">
         <v>3526</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="1">
+        <v>3816</v>
+      </c>
+      <c r="H30">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2108,8 +2640,14 @@
       <c r="F31" s="1">
         <v>3428</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="1">
+        <v>3999</v>
+      </c>
+      <c r="H31">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2128,8 +2666,14 @@
       <c r="F32" s="1">
         <v>3347</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1">
+        <v>4116</v>
+      </c>
+      <c r="H32">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2148,8 +2692,14 @@
       <c r="F33" s="1">
         <v>3885</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1">
+        <v>4070</v>
+      </c>
+      <c r="H33">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2168,8 +2718,14 @@
       <c r="F34" s="1">
         <v>4093</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1">
+        <v>4436</v>
+      </c>
+      <c r="H34">
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2188,8 +2744,14 @@
       <c r="F35" s="1">
         <v>4863</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1">
+        <v>4473</v>
+      </c>
+      <c r="H35">
+        <v>6334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2208,8 +2770,14 @@
       <c r="F36" s="1">
         <v>4665</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="1">
+        <v>4694</v>
+      </c>
+      <c r="H36">
+        <v>6422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2228,8 +2796,14 @@
       <c r="F37" s="1">
         <v>5575</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1">
+        <v>4662</v>
+      </c>
+      <c r="H37">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2248,8 +2822,14 @@
       <c r="F38" s="1">
         <v>5642</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1">
+        <v>5168</v>
+      </c>
+      <c r="H38">
+        <v>6494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2268,8 +2848,14 @@
       <c r="F39" s="1">
         <v>5271</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1">
+        <v>5115</v>
+      </c>
+      <c r="H39">
+        <v>6572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2288,8 +2874,14 @@
       <c r="F40" s="1">
         <v>4684</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="1">
+        <v>5433</v>
+      </c>
+      <c r="H40">
+        <v>7325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2308,8 +2900,14 @@
       <c r="F41" s="1">
         <v>5388</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="1">
+        <v>5747</v>
+      </c>
+      <c r="H41">
+        <v>7390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2328,8 +2926,14 @@
       <c r="F42" s="1">
         <v>4912</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="1">
+        <v>6079</v>
+      </c>
+      <c r="H42">
+        <v>7627</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2348,8 +2952,14 @@
       <c r="F43" s="1">
         <v>5701</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="1">
+        <v>5879</v>
+      </c>
+      <c r="H43">
+        <v>7901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2368,8 +2978,14 @@
       <c r="F44" s="1">
         <v>6056</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="1">
+        <v>6182</v>
+      </c>
+      <c r="H44">
+        <v>8244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2388,8 +3004,14 @@
       <c r="F45" s="1">
         <v>6206</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="1">
+        <v>6141</v>
+      </c>
+      <c r="H45">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2408,8 +3030,14 @@
       <c r="F46" s="1">
         <v>6120</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="1">
+        <v>6362</v>
+      </c>
+      <c r="H46">
+        <v>8784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2428,8 +3056,14 @@
       <c r="F47" s="1">
         <v>6435</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="1">
+        <v>7475</v>
+      </c>
+      <c r="H47">
+        <v>8707</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2448,8 +3082,14 @@
       <c r="F48" s="1">
         <v>6813</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="1">
+        <v>6630</v>
+      </c>
+      <c r="H48">
+        <v>8708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2468,8 +3108,14 @@
       <c r="F49" s="1">
         <v>6746</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="1">
+        <v>7354</v>
+      </c>
+      <c r="H49">
+        <v>9415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2488,8 +3134,14 @@
       <c r="F50" s="1">
         <v>6469</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="1">
+        <v>7494</v>
+      </c>
+      <c r="H50">
+        <v>10157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2508,8 +3160,14 @@
       <c r="F51" s="1">
         <v>6509</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="1">
+        <v>6998</v>
+      </c>
+      <c r="H51">
+        <v>9780</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -2527,6 +3185,12 @@
       </c>
       <c r="F52" s="1">
         <v>6865</v>
+      </c>
+      <c r="G52" s="1">
+        <v>7354</v>
+      </c>
+      <c r="H52">
+        <v>10078</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +3209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
